--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fam3c-Lifr.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.77990302601714</v>
+        <v>6.853403666666668</v>
       </c>
       <c r="H2">
-        <v>5.77990302601714</v>
+        <v>20.560211</v>
       </c>
       <c r="I2">
-        <v>0.1077719462975265</v>
+        <v>0.1214693760944317</v>
       </c>
       <c r="J2">
-        <v>0.1077719462975265</v>
+        <v>0.1214693760944317</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.6781126215234</v>
+        <v>25.84039</v>
       </c>
       <c r="N2">
-        <v>22.6781126215234</v>
+        <v>77.52117</v>
       </c>
       <c r="O2">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739331</v>
       </c>
       <c r="P2">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739332</v>
       </c>
       <c r="Q2">
-        <v>131.0772917655006</v>
+        <v>177.0946235740967</v>
       </c>
       <c r="R2">
-        <v>131.0772917655006</v>
+        <v>1593.85161216687</v>
       </c>
       <c r="S2">
-        <v>0.02725469397686112</v>
+        <v>0.03133568045581094</v>
       </c>
       <c r="T2">
-        <v>0.02725469397686112</v>
+        <v>0.03133568045581094</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.77990302601714</v>
+        <v>6.853403666666668</v>
       </c>
       <c r="H3">
-        <v>5.77990302601714</v>
+        <v>20.560211</v>
       </c>
       <c r="I3">
-        <v>0.1077719462975265</v>
+        <v>0.1214693760944317</v>
       </c>
       <c r="J3">
-        <v>0.1077719462975265</v>
+        <v>0.1214693760944317</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>14.8133852144442</v>
+        <v>14.837618</v>
       </c>
       <c r="N3">
-        <v>14.8133852144442</v>
+        <v>44.512854</v>
       </c>
       <c r="O3">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="P3">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="Q3">
-        <v>85.61993002652358</v>
+        <v>101.6881856057993</v>
       </c>
       <c r="R3">
-        <v>85.61993002652358</v>
+        <v>915.1936704521941</v>
       </c>
       <c r="S3">
-        <v>0.01780281664171024</v>
+        <v>0.01799302782865849</v>
       </c>
       <c r="T3">
-        <v>0.01780281664171024</v>
+        <v>0.01799302782865849</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.77990302601714</v>
+        <v>6.853403666666668</v>
       </c>
       <c r="H4">
-        <v>5.77990302601714</v>
+        <v>20.560211</v>
       </c>
       <c r="I4">
-        <v>0.1077719462975265</v>
+        <v>0.1214693760944317</v>
       </c>
       <c r="J4">
-        <v>0.1077719462975265</v>
+        <v>0.1214693760944317</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.01579144451239</v>
+        <v>9.696099333333335</v>
       </c>
       <c r="N4">
-        <v>9.01579144451239</v>
+        <v>29.088298</v>
       </c>
       <c r="O4">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="P4">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="Q4">
-        <v>52.1104002520766</v>
+        <v>66.45128272343091</v>
       </c>
       <c r="R4">
-        <v>52.1104002520766</v>
+        <v>598.0615445108781</v>
       </c>
       <c r="S4">
-        <v>0.01083523311133823</v>
+        <v>0.01175809925380905</v>
       </c>
       <c r="T4">
-        <v>0.01083523311133823</v>
+        <v>0.01175809925380905</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.77990302601714</v>
+        <v>6.853403666666668</v>
       </c>
       <c r="H5">
-        <v>5.77990302601714</v>
+        <v>20.560211</v>
       </c>
       <c r="I5">
-        <v>0.1077719462975265</v>
+        <v>0.1214693760944317</v>
       </c>
       <c r="J5">
-        <v>0.1077719462975265</v>
+        <v>0.1214693760944317</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.263555245816</v>
+        <v>29.18610833333333</v>
       </c>
       <c r="N5">
-        <v>26.263555245816</v>
+        <v>87.558325</v>
       </c>
       <c r="O5">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="P5">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="Q5">
-        <v>151.8008024392602</v>
+        <v>200.0241818673973</v>
       </c>
       <c r="R5">
-        <v>151.8008024392602</v>
+        <v>1800.217636806575</v>
       </c>
       <c r="S5">
-        <v>0.03156370077683371</v>
+        <v>0.03539290871701295</v>
       </c>
       <c r="T5">
-        <v>0.03156370077683371</v>
+        <v>0.03539290871701294</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.77990302601714</v>
+        <v>6.853403666666668</v>
       </c>
       <c r="H6">
-        <v>5.77990302601714</v>
+        <v>20.560211</v>
       </c>
       <c r="I6">
-        <v>0.1077719462975265</v>
+        <v>0.1214693760944317</v>
       </c>
       <c r="J6">
-        <v>0.1077719462975265</v>
+        <v>0.1214693760944317</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.21993044544737</v>
+        <v>5.334888666666667</v>
       </c>
       <c r="N6">
-        <v>5.21993044544737</v>
+        <v>16.004666</v>
       </c>
       <c r="O6">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="P6">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="Q6">
-        <v>30.17069177724025</v>
+        <v>36.56214554939179</v>
       </c>
       <c r="R6">
-        <v>30.17069177724025</v>
+        <v>329.059309944526</v>
       </c>
       <c r="S6">
-        <v>0.006273344226015736</v>
+        <v>0.006469421186212514</v>
       </c>
       <c r="T6">
-        <v>0.006273344226015736</v>
+        <v>0.006469421186212513</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.77990302601714</v>
+        <v>6.853403666666668</v>
       </c>
       <c r="H7">
-        <v>5.77990302601714</v>
+        <v>20.560211</v>
       </c>
       <c r="I7">
-        <v>0.1077719462975265</v>
+        <v>0.1214693760944317</v>
       </c>
       <c r="J7">
-        <v>0.1077719462975265</v>
+        <v>0.1214693760944317</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>11.6842123038818</v>
+        <v>15.27237266666666</v>
       </c>
       <c r="N7">
-        <v>11.6842123038818</v>
+        <v>45.81711799999999</v>
       </c>
       <c r="O7">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="P7">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="Q7">
-        <v>67.53361405183311</v>
+        <v>104.6677348324331</v>
       </c>
       <c r="R7">
-        <v>67.53361405183311</v>
+        <v>942.009613491898</v>
       </c>
       <c r="S7">
-        <v>0.01404215756476749</v>
+        <v>0.01852023865292776</v>
       </c>
       <c r="T7">
-        <v>0.01404215756476749</v>
+        <v>0.01852023865292775</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7539023740431</v>
+        <v>10.87435366666667</v>
       </c>
       <c r="H8">
-        <v>10.7539023740431</v>
+        <v>32.623061</v>
       </c>
       <c r="I8">
-        <v>0.2005170301175187</v>
+        <v>0.1927364882568854</v>
       </c>
       <c r="J8">
-        <v>0.2005170301175187</v>
+        <v>0.1927364882568854</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>22.6781126215234</v>
+        <v>25.84039</v>
       </c>
       <c r="N8">
-        <v>22.6781126215234</v>
+        <v>77.52117</v>
       </c>
       <c r="O8">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739331</v>
       </c>
       <c r="P8">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739332</v>
       </c>
       <c r="Q8">
-        <v>243.8782091594173</v>
+        <v>280.9975397445966</v>
       </c>
       <c r="R8">
-        <v>243.8782091594173</v>
+        <v>2528.97785770137</v>
       </c>
       <c r="S8">
-        <v>0.05070921033489253</v>
+        <v>0.04972058968589515</v>
       </c>
       <c r="T8">
-        <v>0.05070921033489253</v>
+        <v>0.04972058968589516</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7539023740431</v>
+        <v>10.87435366666667</v>
       </c>
       <c r="H9">
-        <v>10.7539023740431</v>
+        <v>32.623061</v>
       </c>
       <c r="I9">
-        <v>0.2005170301175187</v>
+        <v>0.1927364882568854</v>
       </c>
       <c r="J9">
-        <v>0.2005170301175187</v>
+        <v>0.1927364882568854</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.8133852144442</v>
+        <v>14.837618</v>
       </c>
       <c r="N9">
-        <v>14.8133852144442</v>
+        <v>44.512854</v>
       </c>
       <c r="O9">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="P9">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="Q9">
-        <v>159.3016984252264</v>
+        <v>161.3495057028993</v>
       </c>
       <c r="R9">
-        <v>159.3016984252264</v>
+        <v>1452.145551326094</v>
       </c>
       <c r="S9">
-        <v>0.03312335021645986</v>
+        <v>0.02854968971033534</v>
       </c>
       <c r="T9">
-        <v>0.03312335021645986</v>
+        <v>0.02854968971033534</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.7539023740431</v>
+        <v>10.87435366666667</v>
       </c>
       <c r="H10">
-        <v>10.7539023740431</v>
+        <v>32.623061</v>
       </c>
       <c r="I10">
-        <v>0.2005170301175187</v>
+        <v>0.1927364882568854</v>
       </c>
       <c r="J10">
-        <v>0.2005170301175187</v>
+        <v>0.1927364882568854</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>9.01579144451239</v>
+        <v>9.696099333333335</v>
       </c>
       <c r="N10">
-        <v>9.01579144451239</v>
+        <v>29.088298</v>
       </c>
       <c r="O10">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="P10">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="Q10">
-        <v>96.95494101901926</v>
+        <v>105.4388133377976</v>
       </c>
       <c r="R10">
-        <v>96.95494101901926</v>
+        <v>948.949320040178</v>
       </c>
       <c r="S10">
-        <v>0.020159687550956</v>
+        <v>0.01865667571218346</v>
       </c>
       <c r="T10">
-        <v>0.020159687550956</v>
+        <v>0.01865667571218346</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.7539023740431</v>
+        <v>10.87435366666667</v>
       </c>
       <c r="H11">
-        <v>10.7539023740431</v>
+        <v>32.623061</v>
       </c>
       <c r="I11">
-        <v>0.2005170301175187</v>
+        <v>0.1927364882568854</v>
       </c>
       <c r="J11">
-        <v>0.2005170301175187</v>
+        <v>0.1927364882568854</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>26.263555245816</v>
+        <v>29.18610833333333</v>
       </c>
       <c r="N11">
-        <v>26.263555245816</v>
+        <v>87.558325</v>
       </c>
       <c r="O11">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="P11">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="Q11">
-        <v>282.4357091087928</v>
+        <v>317.3800641703139</v>
       </c>
       <c r="R11">
-        <v>282.4357091087928</v>
+        <v>2856.420577532825</v>
       </c>
       <c r="S11">
-        <v>0.05872641032032629</v>
+        <v>0.05615822814476685</v>
       </c>
       <c r="T11">
-        <v>0.05872641032032629</v>
+        <v>0.05615822814476685</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.7539023740431</v>
+        <v>10.87435366666667</v>
       </c>
       <c r="H12">
-        <v>10.7539023740431</v>
+        <v>32.623061</v>
       </c>
       <c r="I12">
-        <v>0.2005170301175187</v>
+        <v>0.1927364882568854</v>
       </c>
       <c r="J12">
-        <v>0.2005170301175187</v>
+        <v>0.1927364882568854</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.21993044544737</v>
+        <v>5.334888666666667</v>
       </c>
       <c r="N12">
-        <v>5.21993044544737</v>
+        <v>16.004666</v>
       </c>
       <c r="O12">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="P12">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="Q12">
-        <v>56.13462240963634</v>
+        <v>58.01346613362511</v>
       </c>
       <c r="R12">
-        <v>56.13462240963634</v>
+        <v>522.121195202626</v>
       </c>
       <c r="S12">
-        <v>0.01167198326021537</v>
+        <v>0.01026508541145337</v>
       </c>
       <c r="T12">
-        <v>0.01167198326021537</v>
+        <v>0.01026508541145337</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.7539023740431</v>
+        <v>10.87435366666667</v>
       </c>
       <c r="H13">
-        <v>10.7539023740431</v>
+        <v>32.623061</v>
       </c>
       <c r="I13">
-        <v>0.2005170301175187</v>
+        <v>0.1927364882568854</v>
       </c>
       <c r="J13">
-        <v>0.2005170301175187</v>
+        <v>0.1927364882568854</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>11.6842123038818</v>
+        <v>15.27237266666666</v>
       </c>
       <c r="N13">
-        <v>11.6842123038818</v>
+        <v>45.81711799999999</v>
       </c>
       <c r="O13">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="P13">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="Q13">
-        <v>125.6508784335381</v>
+        <v>166.0771817064664</v>
       </c>
       <c r="R13">
-        <v>125.6508784335381</v>
+        <v>1494.694635358198</v>
       </c>
       <c r="S13">
-        <v>0.02612638843466862</v>
+        <v>0.02938621959225126</v>
       </c>
       <c r="T13">
-        <v>0.02612638843466862</v>
+        <v>0.02938621959225126</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.6918876453788</v>
+        <v>11.652152</v>
       </c>
       <c r="H14">
-        <v>10.6918876453788</v>
+        <v>34.956456</v>
       </c>
       <c r="I14">
-        <v>0.1993607048336549</v>
+        <v>0.2065221461390865</v>
       </c>
       <c r="J14">
-        <v>0.1993607048336549</v>
+        <v>0.2065221461390864</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>22.6781126215234</v>
+        <v>25.84039</v>
       </c>
       <c r="N14">
-        <v>22.6781126215234</v>
+        <v>77.52117</v>
       </c>
       <c r="O14">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739331</v>
       </c>
       <c r="P14">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739332</v>
       </c>
       <c r="Q14">
-        <v>242.4718321585751</v>
+        <v>301.09615201928</v>
       </c>
       <c r="R14">
-        <v>242.4718321585751</v>
+        <v>2709.86536817352</v>
       </c>
       <c r="S14">
-        <v>0.05041678458930553</v>
+        <v>0.05327690144248105</v>
       </c>
       <c r="T14">
-        <v>0.05041678458930553</v>
+        <v>0.05327690144248105</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.6918876453788</v>
+        <v>11.652152</v>
       </c>
       <c r="H15">
-        <v>10.6918876453788</v>
+        <v>34.956456</v>
       </c>
       <c r="I15">
-        <v>0.1993607048336549</v>
+        <v>0.2065221461390865</v>
       </c>
       <c r="J15">
-        <v>0.1993607048336549</v>
+        <v>0.2065221461390864</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.8133852144442</v>
+        <v>14.837618</v>
       </c>
       <c r="N15">
-        <v>14.8133852144442</v>
+        <v>44.512854</v>
       </c>
       <c r="O15">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="P15">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="Q15">
-        <v>158.3830503605529</v>
+        <v>172.890180253936</v>
       </c>
       <c r="R15">
-        <v>158.3830503605529</v>
+        <v>1556.011622285424</v>
       </c>
       <c r="S15">
-        <v>0.03293233717722263</v>
+        <v>0.03059173301282151</v>
       </c>
       <c r="T15">
-        <v>0.03293233717722263</v>
+        <v>0.0305917330128215</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>10.6918876453788</v>
+        <v>11.652152</v>
       </c>
       <c r="H16">
-        <v>10.6918876453788</v>
+        <v>34.956456</v>
       </c>
       <c r="I16">
-        <v>0.1993607048336549</v>
+        <v>0.2065221461390865</v>
       </c>
       <c r="J16">
-        <v>0.1993607048336549</v>
+        <v>0.2065221461390864</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.01579144451239</v>
+        <v>9.696099333333335</v>
       </c>
       <c r="N16">
-        <v>9.01579144451239</v>
+        <v>29.088298</v>
       </c>
       <c r="O16">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="P16">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="Q16">
-        <v>96.3958291588939</v>
+        <v>112.9804232390987</v>
       </c>
       <c r="R16">
-        <v>96.3958291588939</v>
+        <v>1016.823809151888</v>
       </c>
       <c r="S16">
-        <v>0.02004343230612067</v>
+        <v>0.01999111192046662</v>
       </c>
       <c r="T16">
-        <v>0.02004343230612067</v>
+        <v>0.01999111192046661</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>10.6918876453788</v>
+        <v>11.652152</v>
       </c>
       <c r="H17">
-        <v>10.6918876453788</v>
+        <v>34.956456</v>
       </c>
       <c r="I17">
-        <v>0.1993607048336549</v>
+        <v>0.2065221461390865</v>
       </c>
       <c r="J17">
-        <v>0.1993607048336549</v>
+        <v>0.2065221461390864</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.263555245816</v>
+        <v>29.18610833333333</v>
       </c>
       <c r="N17">
-        <v>26.263555245816</v>
+        <v>87.558325</v>
       </c>
       <c r="O17">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="P17">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="Q17">
-        <v>280.8069818564637</v>
+        <v>340.0809705884666</v>
       </c>
       <c r="R17">
-        <v>280.8069818564637</v>
+        <v>3060.728735296199</v>
       </c>
       <c r="S17">
-        <v>0.05838775163859659</v>
+        <v>0.06017499802303971</v>
       </c>
       <c r="T17">
-        <v>0.05838775163859659</v>
+        <v>0.0601749980230397</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>10.6918876453788</v>
+        <v>11.652152</v>
       </c>
       <c r="H18">
-        <v>10.6918876453788</v>
+        <v>34.956456</v>
       </c>
       <c r="I18">
-        <v>0.1993607048336549</v>
+        <v>0.2065221461390865</v>
       </c>
       <c r="J18">
-        <v>0.1993607048336549</v>
+        <v>0.2065221461390864</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.21993044544737</v>
+        <v>5.334888666666667</v>
       </c>
       <c r="N18">
-        <v>5.21993044544737</v>
+        <v>16.004666</v>
       </c>
       <c r="O18">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="P18">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="Q18">
-        <v>55.81090983941539</v>
+        <v>62.16293364707733</v>
       </c>
       <c r="R18">
-        <v>55.81090983941539</v>
+        <v>559.4664028236959</v>
       </c>
       <c r="S18">
-        <v>0.01160467421744373</v>
+        <v>0.01099930526205716</v>
       </c>
       <c r="T18">
-        <v>0.01160467421744373</v>
+        <v>0.01099930526205716</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>10.6918876453788</v>
+        <v>11.652152</v>
       </c>
       <c r="H19">
-        <v>10.6918876453788</v>
+        <v>34.956456</v>
       </c>
       <c r="I19">
-        <v>0.1993607048336549</v>
+        <v>0.2065221461390865</v>
       </c>
       <c r="J19">
-        <v>0.1993607048336549</v>
+        <v>0.2065221461390864</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.6842123038818</v>
+        <v>15.27237266666666</v>
       </c>
       <c r="N19">
-        <v>11.6842123038818</v>
+        <v>45.81711799999999</v>
       </c>
       <c r="O19">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="P19">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="Q19">
-        <v>124.9262851778568</v>
+        <v>177.9560077126453</v>
       </c>
       <c r="R19">
-        <v>124.9262851778568</v>
+        <v>1601.604069413808</v>
       </c>
       <c r="S19">
-        <v>0.02597572490496569</v>
+        <v>0.03148809647822039</v>
       </c>
       <c r="T19">
-        <v>0.02597572490496569</v>
+        <v>0.03148809647822039</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.2462435017689</v>
+        <v>15.34631033333333</v>
       </c>
       <c r="H20">
-        <v>15.2462435017689</v>
+        <v>46.038931</v>
       </c>
       <c r="I20">
-        <v>0.2842811252222519</v>
+        <v>0.2719972195141669</v>
       </c>
       <c r="J20">
-        <v>0.2842811252222519</v>
+        <v>0.2719972195141669</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>22.6781126215234</v>
+        <v>25.84039</v>
       </c>
       <c r="N20">
-        <v>22.6781126215234</v>
+        <v>77.52117</v>
       </c>
       <c r="O20">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739331</v>
       </c>
       <c r="P20">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739332</v>
       </c>
       <c r="Q20">
-        <v>345.7560271882844</v>
+        <v>396.5546440743633</v>
       </c>
       <c r="R20">
-        <v>345.7560271882844</v>
+        <v>3568.99179666927</v>
       </c>
       <c r="S20">
-        <v>0.07189250391693104</v>
+        <v>0.07016762767381755</v>
       </c>
       <c r="T20">
-        <v>0.07189250391693104</v>
+        <v>0.07016762767381757</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.2462435017689</v>
+        <v>15.34631033333333</v>
       </c>
       <c r="H21">
-        <v>15.2462435017689</v>
+        <v>46.038931</v>
       </c>
       <c r="I21">
-        <v>0.2842811252222519</v>
+        <v>0.2719972195141669</v>
       </c>
       <c r="J21">
-        <v>0.2842811252222519</v>
+        <v>0.2719972195141669</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>14.8133852144442</v>
+        <v>14.837618</v>
       </c>
       <c r="N21">
-        <v>14.8133852144442</v>
+        <v>44.512854</v>
       </c>
       <c r="O21">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="P21">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="Q21">
-        <v>225.8484780649194</v>
+        <v>227.7026904354526</v>
       </c>
       <c r="R21">
-        <v>225.8484780649194</v>
+        <v>2049.324213919074</v>
       </c>
       <c r="S21">
-        <v>0.04696031686259872</v>
+        <v>0.04029043119667828</v>
       </c>
       <c r="T21">
-        <v>0.04696031686259872</v>
+        <v>0.04029043119667828</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.2462435017689</v>
+        <v>15.34631033333333</v>
       </c>
       <c r="H22">
-        <v>15.2462435017689</v>
+        <v>46.038931</v>
       </c>
       <c r="I22">
-        <v>0.2842811252222519</v>
+        <v>0.2719972195141669</v>
       </c>
       <c r="J22">
-        <v>0.2842811252222519</v>
+        <v>0.2719972195141669</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.01579144451239</v>
+        <v>9.696099333333335</v>
       </c>
       <c r="N22">
-        <v>9.01579144451239</v>
+        <v>29.088298</v>
       </c>
       <c r="O22">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="P22">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="Q22">
-        <v>137.4569517242007</v>
+        <v>148.7993493921598</v>
       </c>
       <c r="R22">
-        <v>137.4569517242007</v>
+        <v>1339.194144529438</v>
       </c>
       <c r="S22">
-        <v>0.02858120658258288</v>
+        <v>0.0263290255259183</v>
       </c>
       <c r="T22">
-        <v>0.02858120658258288</v>
+        <v>0.0263290255259183</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.2462435017689</v>
+        <v>15.34631033333333</v>
       </c>
       <c r="H23">
-        <v>15.2462435017689</v>
+        <v>46.038931</v>
       </c>
       <c r="I23">
-        <v>0.2842811252222519</v>
+        <v>0.2719972195141669</v>
       </c>
       <c r="J23">
-        <v>0.2842811252222519</v>
+        <v>0.2719972195141669</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>26.263555245816</v>
+        <v>29.18610833333333</v>
       </c>
       <c r="N23">
-        <v>26.263555245816</v>
+        <v>87.558325</v>
       </c>
       <c r="O23">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="P23">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="Q23">
-        <v>400.4205584998707</v>
+        <v>447.8990759056194</v>
       </c>
       <c r="R23">
-        <v>400.4205584998707</v>
+        <v>4031.091683150575</v>
       </c>
       <c r="S23">
-        <v>0.08325881346009142</v>
+        <v>0.07925267315164505</v>
       </c>
       <c r="T23">
-        <v>0.08325881346009142</v>
+        <v>0.07925267315164505</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.2462435017689</v>
+        <v>15.34631033333333</v>
       </c>
       <c r="H24">
-        <v>15.2462435017689</v>
+        <v>46.038931</v>
       </c>
       <c r="I24">
-        <v>0.2842811252222519</v>
+        <v>0.2719972195141669</v>
       </c>
       <c r="J24">
-        <v>0.2842811252222519</v>
+        <v>0.2719972195141669</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.21993044544737</v>
+        <v>5.334888666666667</v>
       </c>
       <c r="N24">
-        <v>5.21993044544737</v>
+        <v>16.004666</v>
       </c>
       <c r="O24">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="P24">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="Q24">
-        <v>79.58433063358761</v>
+        <v>81.87085707244957</v>
       </c>
       <c r="R24">
-        <v>79.58433063358761</v>
+        <v>736.837713652046</v>
       </c>
       <c r="S24">
-        <v>0.01654784400529287</v>
+        <v>0.01448648730316902</v>
       </c>
       <c r="T24">
-        <v>0.01654784400529287</v>
+        <v>0.01448648730316902</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.2462435017689</v>
+        <v>15.34631033333333</v>
       </c>
       <c r="H25">
-        <v>15.2462435017689</v>
+        <v>46.038931</v>
       </c>
       <c r="I25">
-        <v>0.2842811252222519</v>
+        <v>0.2719972195141669</v>
       </c>
       <c r="J25">
-        <v>0.2842811252222519</v>
+        <v>0.2719972195141669</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>11.6842123038818</v>
+        <v>15.27237266666666</v>
       </c>
       <c r="N25">
-        <v>11.6842123038818</v>
+        <v>45.81711799999999</v>
       </c>
       <c r="O25">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="P25">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="Q25">
-        <v>178.1403459113461</v>
+        <v>234.3745704689842</v>
       </c>
       <c r="R25">
-        <v>178.1403459113461</v>
+        <v>2109.371134220858</v>
       </c>
       <c r="S25">
-        <v>0.03704044039475489</v>
+        <v>0.04147097466293871</v>
       </c>
       <c r="T25">
-        <v>0.03704044039475489</v>
+        <v>0.04147097466293871</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>5.67956194664895</v>
+        <v>5.793594</v>
       </c>
       <c r="H26">
-        <v>5.67956194664895</v>
+        <v>17.380782</v>
       </c>
       <c r="I26">
-        <v>0.1059009887107941</v>
+        <v>0.1026853637627225</v>
       </c>
       <c r="J26">
-        <v>0.1059009887107941</v>
+        <v>0.1026853637627225</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>22.6781126215234</v>
+        <v>25.84039</v>
       </c>
       <c r="N26">
-        <v>22.6781126215234</v>
+        <v>77.52117</v>
       </c>
       <c r="O26">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739331</v>
       </c>
       <c r="P26">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739332</v>
       </c>
       <c r="Q26">
-        <v>128.8017454670236</v>
+        <v>149.70872846166</v>
       </c>
       <c r="R26">
-        <v>128.8017454670236</v>
+        <v>1347.37855615494</v>
       </c>
       <c r="S26">
-        <v>0.02678154323381613</v>
+        <v>0.02648993392257066</v>
       </c>
       <c r="T26">
-        <v>0.02678154323381613</v>
+        <v>0.02648993392257067</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>5.67956194664895</v>
+        <v>5.793594</v>
       </c>
       <c r="H27">
-        <v>5.67956194664895</v>
+        <v>17.380782</v>
       </c>
       <c r="I27">
-        <v>0.1059009887107941</v>
+        <v>0.1026853637627225</v>
       </c>
       <c r="J27">
-        <v>0.1059009887107941</v>
+        <v>0.1026853637627225</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>14.8133852144442</v>
+        <v>14.837618</v>
       </c>
       <c r="N27">
-        <v>14.8133852144442</v>
+        <v>44.512854</v>
       </c>
       <c r="O27">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="P27">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="Q27">
-        <v>84.13353896500948</v>
+        <v>85.96313461909199</v>
       </c>
       <c r="R27">
-        <v>84.13353896500948</v>
+        <v>773.6682115718279</v>
       </c>
       <c r="S27">
-        <v>0.01749375369903071</v>
+        <v>0.01521058778092533</v>
       </c>
       <c r="T27">
-        <v>0.01749375369903071</v>
+        <v>0.01521058778092533</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>5.67956194664895</v>
+        <v>5.793594</v>
       </c>
       <c r="H28">
-        <v>5.67956194664895</v>
+        <v>17.380782</v>
       </c>
       <c r="I28">
-        <v>0.1059009887107941</v>
+        <v>0.1026853637627225</v>
       </c>
       <c r="J28">
-        <v>0.1059009887107941</v>
+        <v>0.1026853637627225</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>9.01579144451239</v>
+        <v>9.696099333333335</v>
       </c>
       <c r="N28">
-        <v>9.01579144451239</v>
+        <v>29.088298</v>
       </c>
       <c r="O28">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="P28">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="Q28">
-        <v>51.20574600717573</v>
+        <v>56.17526292100401</v>
       </c>
       <c r="R28">
-        <v>51.20574600717573</v>
+        <v>505.577366289036</v>
       </c>
       <c r="S28">
-        <v>0.01064712978491498</v>
+        <v>0.009939827945579826</v>
       </c>
       <c r="T28">
-        <v>0.01064712978491498</v>
+        <v>0.009939827945579826</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>5.67956194664895</v>
+        <v>5.793594</v>
       </c>
       <c r="H29">
-        <v>5.67956194664895</v>
+        <v>17.380782</v>
       </c>
       <c r="I29">
-        <v>0.1059009887107941</v>
+        <v>0.1026853637627225</v>
       </c>
       <c r="J29">
-        <v>0.1059009887107941</v>
+        <v>0.1026853637627225</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>26.263555245816</v>
+        <v>29.18610833333333</v>
       </c>
       <c r="N29">
-        <v>26.263555245816</v>
+        <v>87.558325</v>
       </c>
       <c r="O29">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="P29">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="Q29">
-        <v>149.165488957849</v>
+        <v>169.09246212335</v>
       </c>
       <c r="R29">
-        <v>149.165488957849</v>
+        <v>1521.83215911015</v>
       </c>
       <c r="S29">
-        <v>0.03101574421241632</v>
+        <v>0.02991975280585893</v>
       </c>
       <c r="T29">
-        <v>0.03101574421241632</v>
+        <v>0.02991975280585893</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>5.67956194664895</v>
+        <v>5.793594</v>
       </c>
       <c r="H30">
-        <v>5.67956194664895</v>
+        <v>17.380782</v>
       </c>
       <c r="I30">
-        <v>0.1059009887107941</v>
+        <v>0.1026853637627225</v>
       </c>
       <c r="J30">
-        <v>0.1059009887107941</v>
+        <v>0.1026853637627225</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.21993044544737</v>
+        <v>5.334888666666667</v>
       </c>
       <c r="N30">
-        <v>5.21993044544737</v>
+        <v>16.004666</v>
       </c>
       <c r="O30">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="P30">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="Q30">
-        <v>29.64691832211719</v>
+        <v>30.908178969868</v>
       </c>
       <c r="R30">
-        <v>29.64691832211719</v>
+        <v>278.173610728812</v>
       </c>
       <c r="S30">
-        <v>0.006164436839844522</v>
+        <v>0.005468990532428926</v>
       </c>
       <c r="T30">
-        <v>0.006164436839844522</v>
+        <v>0.005468990532428926</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>5.67956194664895</v>
+        <v>5.793594</v>
       </c>
       <c r="H31">
-        <v>5.67956194664895</v>
+        <v>17.380782</v>
       </c>
       <c r="I31">
-        <v>0.1059009887107941</v>
+        <v>0.1026853637627225</v>
       </c>
       <c r="J31">
-        <v>0.1059009887107941</v>
+        <v>0.1026853637627225</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>11.6842123038818</v>
+        <v>15.27237266666666</v>
       </c>
       <c r="N31">
-        <v>11.6842123038818</v>
+        <v>45.81711799999999</v>
       </c>
       <c r="O31">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="P31">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="Q31">
-        <v>66.36120757769453</v>
+        <v>88.48192664736398</v>
       </c>
       <c r="R31">
-        <v>66.36120757769453</v>
+        <v>796.3373398262759</v>
       </c>
       <c r="S31">
-        <v>0.01379838094077145</v>
+        <v>0.01565627077535882</v>
       </c>
       <c r="T31">
-        <v>0.01379838094077145</v>
+        <v>0.01565627077535882</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.47936950643451</v>
+        <v>5.901021666666668</v>
       </c>
       <c r="H32">
-        <v>5.47936950643451</v>
+        <v>17.703065</v>
       </c>
       <c r="I32">
-        <v>0.1021682048182539</v>
+        <v>0.104589406232707</v>
       </c>
       <c r="J32">
-        <v>0.1021682048182539</v>
+        <v>0.104589406232707</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>22.6781126215234</v>
+        <v>25.84039</v>
       </c>
       <c r="N32">
-        <v>22.6781126215234</v>
+        <v>77.52117</v>
       </c>
       <c r="O32">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739331</v>
       </c>
       <c r="P32">
-        <v>0.2528922870300491</v>
+        <v>0.2579718564739332</v>
       </c>
       <c r="Q32">
-        <v>124.2617587618629</v>
+        <v>152.4847012651167</v>
       </c>
       <c r="R32">
-        <v>124.2617587618629</v>
+        <v>1372.36231138605</v>
       </c>
       <c r="S32">
-        <v>0.0258375509782427</v>
+        <v>0.02698112329335777</v>
       </c>
       <c r="T32">
-        <v>0.0258375509782427</v>
+        <v>0.02698112329335777</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.47936950643451</v>
+        <v>5.901021666666668</v>
       </c>
       <c r="H33">
-        <v>5.47936950643451</v>
+        <v>17.703065</v>
       </c>
       <c r="I33">
-        <v>0.1021682048182539</v>
+        <v>0.104589406232707</v>
       </c>
       <c r="J33">
-        <v>0.1021682048182539</v>
+        <v>0.104589406232707</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>14.8133852144442</v>
+        <v>14.837618</v>
       </c>
       <c r="N33">
-        <v>14.8133852144442</v>
+        <v>44.512854</v>
       </c>
       <c r="O33">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="P33">
-        <v>0.165189710804349</v>
+        <v>0.1481280995027957</v>
       </c>
       <c r="Q33">
-        <v>81.16801123109337</v>
+        <v>87.55710529972335</v>
       </c>
       <c r="R33">
-        <v>81.16801123109337</v>
+        <v>788.01394769751</v>
       </c>
       <c r="S33">
-        <v>0.01687713620732686</v>
+        <v>0.01549262997337674</v>
       </c>
       <c r="T33">
-        <v>0.01687713620732686</v>
+        <v>0.01549262997337674</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.47936950643451</v>
+        <v>5.901021666666668</v>
       </c>
       <c r="H34">
-        <v>5.47936950643451</v>
+        <v>17.703065</v>
       </c>
       <c r="I34">
-        <v>0.1021682048182539</v>
+        <v>0.104589406232707</v>
       </c>
       <c r="J34">
-        <v>0.1021682048182539</v>
+        <v>0.104589406232707</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>9.01579144451239</v>
+        <v>9.696099333333335</v>
       </c>
       <c r="N34">
-        <v>9.01579144451239</v>
+        <v>29.088298</v>
       </c>
       <c r="O34">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="P34">
-        <v>0.1005385305135471</v>
+        <v>0.09679887747730068</v>
       </c>
       <c r="Q34">
-        <v>49.40085271743433</v>
+        <v>57.21689224815224</v>
       </c>
       <c r="R34">
-        <v>49.40085271743433</v>
+        <v>514.9520302333701</v>
       </c>
       <c r="S34">
-        <v>0.01027184117763435</v>
+        <v>0.01012413711934343</v>
       </c>
       <c r="T34">
-        <v>0.01027184117763435</v>
+        <v>0.01012413711934343</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.47936950643451</v>
+        <v>5.901021666666668</v>
       </c>
       <c r="H35">
-        <v>5.47936950643451</v>
+        <v>17.703065</v>
       </c>
       <c r="I35">
-        <v>0.1021682048182539</v>
+        <v>0.104589406232707</v>
       </c>
       <c r="J35">
-        <v>0.1021682048182539</v>
+        <v>0.104589406232707</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>26.263555245816</v>
+        <v>29.18610833333333</v>
       </c>
       <c r="N35">
-        <v>26.263555245816</v>
+        <v>87.558325</v>
       </c>
       <c r="O35">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="P35">
-        <v>0.2928749258150692</v>
+        <v>0.2913731004059664</v>
       </c>
       <c r="Q35">
-        <v>143.9077237444823</v>
+        <v>172.2278576406806</v>
       </c>
       <c r="R35">
-        <v>143.9077237444823</v>
+        <v>1550.050718766125</v>
       </c>
       <c r="S35">
-        <v>0.0299225054068049</v>
+        <v>0.03047453956364294</v>
       </c>
       <c r="T35">
-        <v>0.0299225054068049</v>
+        <v>0.03047453956364294</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.47936950643451</v>
+        <v>5.901021666666668</v>
       </c>
       <c r="H36">
-        <v>5.47936950643451</v>
+        <v>17.703065</v>
       </c>
       <c r="I36">
-        <v>0.1021682048182539</v>
+        <v>0.104589406232707</v>
       </c>
       <c r="J36">
-        <v>0.1021682048182539</v>
+        <v>0.104589406232707</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.21993044544737</v>
+        <v>5.334888666666667</v>
       </c>
       <c r="N36">
-        <v>5.21993044544737</v>
+        <v>16.004666</v>
       </c>
       <c r="O36">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="P36">
-        <v>0.0582094361430282</v>
+        <v>0.05325968893742494</v>
       </c>
       <c r="Q36">
-        <v>28.60192770849343</v>
+        <v>31.48129361125445</v>
       </c>
       <c r="R36">
-        <v>28.60192770849343</v>
+        <v>283.33164250129</v>
       </c>
       <c r="S36">
-        <v>0.005947153594215976</v>
+        <v>0.005570399242103947</v>
       </c>
       <c r="T36">
-        <v>0.005947153594215976</v>
+        <v>0.005570399242103946</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.47936950643451</v>
+        <v>5.901021666666668</v>
       </c>
       <c r="H37">
-        <v>5.47936950643451</v>
+        <v>17.703065</v>
       </c>
       <c r="I37">
-        <v>0.1021682048182539</v>
+        <v>0.104589406232707</v>
       </c>
       <c r="J37">
-        <v>0.1021682048182539</v>
+        <v>0.104589406232707</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>11.6842123038818</v>
+        <v>15.27237266666666</v>
       </c>
       <c r="N37">
-        <v>11.6842123038818</v>
+        <v>45.81711799999999</v>
       </c>
       <c r="O37">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="P37">
-        <v>0.1302951096939572</v>
+        <v>0.1524683772025791</v>
       </c>
       <c r="Q37">
-        <v>64.02211660459685</v>
+        <v>90.12260200740778</v>
       </c>
       <c r="R37">
-        <v>64.02211660459685</v>
+        <v>811.10341806667</v>
       </c>
       <c r="S37">
-        <v>0.01331201745402908</v>
+        <v>0.01594657704088214</v>
       </c>
       <c r="T37">
-        <v>0.01331201745402908</v>
+        <v>0.01594657704088214</v>
       </c>
     </row>
   </sheetData>
